--- a/biology/Botanique/Cibotiaceae/Cibotiaceae.xlsx
+++ b/biology/Botanique/Cibotiaceae/Cibotiaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Cibotiaceae sont une famille de fougères arborescentes.
 Elle contient un seul genre, Cibotium qui est présent en Amérique centrale, à Hawaï et en Asie du Sud-Est.
-Cependant, cette famille n'est pas acceptée[2] par tous les auteurs. Le genre Cibotium était classé auparavant dans la famille des Dicksoniaceae[3].
+Cependant, cette famille n'est pas acceptée par tous les auteurs. Le genre Cibotium était classé auparavant dans la famille des Dicksoniaceae.
 </t>
         </is>
       </c>
@@ -513,17 +525,19 @@
           <t>Liste des espèces et genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (25 mars 2019)[4], Catalogue of Life                                   (25 mars 2019)[5], ITIS      (25 mars 2019)[6] et NCBI  (25 mars 2019)[7] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (25 mars 2019), Catalogue of Life                                   (25 mars 2019), ITIS      (25 mars 2019) et NCBI  (25 mars 2019) :
 genre Cibotium Kaulf., 1820
-Selon GRIN            (25 mars 2019)[8] :
+Selon GRIN            (25 mars 2019) :
 genre Cibotium
 Cibotium barometz (L.) J. Sm.
 Cibotium chamissoi Kaulf.
 Cibotium glaucum (Sm.) Hook. &amp; Arn.
 Cibotium regale Verschaff. &amp; Lem.
-Selon Tropicos                                           (25 mars 2019)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (25 mars 2019) (Attention liste brute contenant possiblement des synonymes) :
 genre Cibotium Kaulf.
 genre Pinonia Gaudich.</t>
         </is>
